--- a/3_Component_Results/PRIVCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.06522651944612287</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.528336551320912</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>13.19799231504191</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.632904115861292</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.667756611022197</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3285504494473149</v>
+        <v>0.4071403425012899</v>
       </c>
       <c r="C3">
-        <v>0.4231357796954676</v>
+        <v>1.360982216433359</v>
       </c>
       <c r="D3">
-        <v>1.012990002986796</v>
+        <v>11.3091244196728</v>
       </c>
       <c r="E3">
-        <v>1.006474044864941</v>
+        <v>3.362904164509122</v>
       </c>
       <c r="F3">
-        <v>0.9608046093029832</v>
+        <v>3.371383749205116</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5031176909855613</v>
+        <v>0.5746585884689557</v>
       </c>
       <c r="C4">
-        <v>0.8131224227514088</v>
+        <v>1.326100425856204</v>
       </c>
       <c r="D4">
-        <v>3.84591279264628</v>
+        <v>8.342275789519231</v>
       </c>
       <c r="E4">
-        <v>1.96109989359193</v>
+        <v>2.888299809493334</v>
       </c>
       <c r="F4">
-        <v>1.914708210749051</v>
+        <v>2.859292636981395</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2829948867525988</v>
+        <v>0.5077119487392797</v>
       </c>
       <c r="C5">
-        <v>1.040802951704986</v>
+        <v>1.431591456579723</v>
       </c>
       <c r="D5">
-        <v>5.19030407934612</v>
+        <v>7.506921903539223</v>
       </c>
       <c r="E5">
-        <v>2.278223887010695</v>
+        <v>2.739876256975709</v>
       </c>
       <c r="F5">
-        <v>2.284005439543482</v>
+        <v>2.725872198519724</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.246002043958147</v>
+        <v>0.5683032239805089</v>
       </c>
       <c r="C6">
-        <v>0.9847590314092338</v>
+        <v>1.971558803322826</v>
       </c>
       <c r="D6">
-        <v>5.218478212131925</v>
+        <v>12.24721082536355</v>
       </c>
       <c r="E6">
-        <v>2.284398873255703</v>
+        <v>3.499601523797181</v>
       </c>
       <c r="F6">
-        <v>2.295148156864343</v>
+        <v>3.510230336223366</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2243835840612504</v>
+        <v>0.5396674267054108</v>
       </c>
       <c r="C7">
-        <v>1.096417401472433</v>
+        <v>2.030587006868052</v>
       </c>
       <c r="D7">
-        <v>5.91635638080596</v>
+        <v>12.72930806051201</v>
       </c>
       <c r="E7">
-        <v>2.432356137740927</v>
+        <v>3.56781558667373</v>
       </c>
       <c r="F7">
-        <v>2.453645661011288</v>
+        <v>3.589189854583631</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.187631334399435</v>
+        <v>0.4461851316959971</v>
       </c>
       <c r="C8">
-        <v>1.134830995855934</v>
+        <v>2.04993939170431</v>
       </c>
       <c r="D8">
-        <v>6.179634960718687</v>
+        <v>12.97625138835586</v>
       </c>
       <c r="E8">
-        <v>2.485887157680068</v>
+        <v>3.602256430122079</v>
       </c>
       <c r="F8">
-        <v>2.512069884317252</v>
+        <v>3.642608933213258</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.007087317252562257</v>
+        <v>0.2350498390188732</v>
       </c>
       <c r="C9">
-        <v>1.677732802168341</v>
+        <v>2.433167982692137</v>
       </c>
       <c r="D9">
-        <v>10.65869601343597</v>
+        <v>17.26964117102916</v>
       </c>
       <c r="E9">
-        <v>3.264765843584494</v>
+        <v>4.155675777900528</v>
       </c>
       <c r="F9">
-        <v>3.345381603425631</v>
+        <v>4.262716023459958</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.5730273390368471</v>
+        <v>-0.5965755513627876</v>
       </c>
       <c r="C10">
-        <v>1.31145542780357</v>
+        <v>2.793546223734767</v>
       </c>
       <c r="D10">
-        <v>6.513512898448992</v>
+        <v>23.31997394578584</v>
       </c>
       <c r="E10">
-        <v>2.552158478317715</v>
+        <v>4.829075889420857</v>
       </c>
       <c r="F10">
-        <v>2.580878442288665</v>
+        <v>5.005168770995406</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.7489990067474906</v>
+        <v>-3.259825893570965</v>
       </c>
       <c r="C11">
-        <v>0.7489990067474906</v>
+        <v>3.570597827222227</v>
       </c>
       <c r="D11">
-        <v>0.8040835518222755</v>
+        <v>29.46234283587567</v>
       </c>
       <c r="E11">
-        <v>0.8967070602054361</v>
+        <v>5.427922515647738</v>
       </c>
       <c r="F11">
-        <v>0.5512304868582063</v>
+        <v>4.852303316400357</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/PRIVCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.06522651944612287</v>
+        <v>0.1281536994595948</v>
       </c>
       <c r="C2">
-        <v>1.528336551320912</v>
+        <v>0.2797649995624122</v>
       </c>
       <c r="D2">
-        <v>13.19799231504191</v>
+        <v>0.3038831578311377</v>
       </c>
       <c r="E2">
-        <v>3.632904115861292</v>
+        <v>0.5512559821273033</v>
       </c>
       <c r="F2">
-        <v>3.667756611022197</v>
+        <v>0.5413836472969831</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4071403425012899</v>
+        <v>0.3997486404630072</v>
       </c>
       <c r="C3">
-        <v>1.360982216433359</v>
+        <v>0.6318827147352428</v>
       </c>
       <c r="D3">
-        <v>11.3091244196728</v>
+        <v>1.377332145493524</v>
       </c>
       <c r="E3">
-        <v>3.362904164509122</v>
+        <v>1.1735979488281</v>
       </c>
       <c r="F3">
-        <v>3.371383749205116</v>
+        <v>1.114398417685673</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5746585884689557</v>
+        <v>0.6166457405447743</v>
       </c>
       <c r="C4">
-        <v>1.326100425856204</v>
+        <v>1.030434176077713</v>
       </c>
       <c r="D4">
-        <v>8.342275789519231</v>
+        <v>4.226220055432564</v>
       </c>
       <c r="E4">
-        <v>2.888299809493334</v>
+        <v>2.055777238767023</v>
       </c>
       <c r="F4">
-        <v>2.859292636981395</v>
+        <v>1.981024288269795</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5077119487392797</v>
+        <v>0.3564886474955841</v>
       </c>
       <c r="C5">
-        <v>1.431591456579723</v>
+        <v>1.153557125445555</v>
       </c>
       <c r="D5">
-        <v>7.506921903539223</v>
+        <v>5.502783603765931</v>
       </c>
       <c r="E5">
-        <v>2.739876256975709</v>
+        <v>2.345801271157881</v>
       </c>
       <c r="F5">
-        <v>2.725872198519724</v>
+        <v>2.34258258903974</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5683032239805089</v>
+        <v>0.3339033228567314</v>
       </c>
       <c r="C6">
-        <v>1.971558803322826</v>
+        <v>1.171432943203542</v>
       </c>
       <c r="D6">
-        <v>12.24721082536355</v>
+        <v>5.596202172583759</v>
       </c>
       <c r="E6">
-        <v>3.499601523797181</v>
+        <v>2.365629339643842</v>
       </c>
       <c r="F6">
-        <v>3.510230336223366</v>
+        <v>2.366729117756491</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.5396674267054108</v>
+        <v>0.3166843790088169</v>
       </c>
       <c r="C7">
-        <v>2.030587006868052</v>
+        <v>1.268286245602126</v>
       </c>
       <c r="D7">
-        <v>12.72930806051201</v>
+        <v>6.364584808664379</v>
       </c>
       <c r="E7">
-        <v>3.56781558667373</v>
+        <v>2.522812876268151</v>
       </c>
       <c r="F7">
-        <v>3.589189854583631</v>
+        <v>2.535576010015387</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4461851316959971</v>
+        <v>0.2837060048817768</v>
       </c>
       <c r="C8">
-        <v>2.04993939170431</v>
+        <v>1.270563093429218</v>
       </c>
       <c r="D8">
-        <v>12.97625138835586</v>
+        <v>6.590865384712885</v>
       </c>
       <c r="E8">
-        <v>3.602256430122079</v>
+        <v>2.567268078076944</v>
       </c>
       <c r="F8">
-        <v>3.642608933213258</v>
+        <v>2.585794346692225</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2350498390188732</v>
+        <v>0.06262643962625501</v>
       </c>
       <c r="C9">
-        <v>2.433167982692137</v>
+        <v>1.720805088009817</v>
       </c>
       <c r="D9">
-        <v>17.26964117102916</v>
+        <v>10.81057706780112</v>
       </c>
       <c r="E9">
-        <v>4.155675777900528</v>
+        <v>3.287944200834485</v>
       </c>
       <c r="F9">
-        <v>4.262716023459958</v>
+        <v>3.368529018236877</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.5965755513627876</v>
+        <v>-0.5304237684279632</v>
       </c>
       <c r="C10">
-        <v>2.793546223734767</v>
+        <v>1.353147886947694</v>
       </c>
       <c r="D10">
-        <v>23.31997394578584</v>
+        <v>6.53100329151635</v>
       </c>
       <c r="E10">
-        <v>4.829075889420857</v>
+        <v>2.555582769451295</v>
       </c>
       <c r="F10">
-        <v>5.005168770995406</v>
+        <v>2.594300777942687</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-3.259825893570965</v>
+        <v>0.7489990067474906</v>
       </c>
       <c r="C11">
-        <v>3.570597827222227</v>
+        <v>0.7489990067474906</v>
       </c>
       <c r="D11">
-        <v>29.46234283587567</v>
+        <v>0.8040835518222755</v>
       </c>
       <c r="E11">
-        <v>5.427922515647738</v>
+        <v>0.8967070602054361</v>
       </c>
       <c r="F11">
-        <v>4.852303316400357</v>
+        <v>0.5512304868582063</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/PRIVCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1281536994595948</v>
+        <v>0.2225774455180299</v>
       </c>
       <c r="C2">
-        <v>0.2797649995624122</v>
+        <v>0.6025194276978968</v>
       </c>
       <c r="D2">
-        <v>0.3038831578311377</v>
+        <v>0.9375366183193465</v>
       </c>
       <c r="E2">
-        <v>0.5512559821273033</v>
+        <v>0.968264745986007</v>
       </c>
       <c r="F2">
-        <v>0.5413836472969831</v>
+        <v>0.9517120452360237</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3997486404630072</v>
+        <v>0.5002927602626792</v>
       </c>
       <c r="C3">
-        <v>0.6318827147352428</v>
+        <v>0.8093331159883599</v>
       </c>
       <c r="D3">
-        <v>1.377332145493524</v>
+        <v>2.512481039783275</v>
       </c>
       <c r="E3">
-        <v>1.1735979488281</v>
+        <v>1.585080767589865</v>
       </c>
       <c r="F3">
-        <v>1.114398417685673</v>
+        <v>1.519327252374612</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6166457405447743</v>
+        <v>0.7210151913624349</v>
       </c>
       <c r="C4">
-        <v>1.030434176077713</v>
+        <v>1.262988772388277</v>
       </c>
       <c r="D4">
-        <v>4.226220055432564</v>
+        <v>6.435165304488891</v>
       </c>
       <c r="E4">
-        <v>2.055777238767023</v>
+        <v>2.536762760781719</v>
       </c>
       <c r="F4">
-        <v>1.981024288269795</v>
+        <v>2.457343660326128</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3564886474955841</v>
+        <v>0.4586541891000874</v>
       </c>
       <c r="C5">
-        <v>1.153557125445555</v>
+        <v>1.384892259048143</v>
       </c>
       <c r="D5">
-        <v>5.502783603765931</v>
+        <v>7.994179379982225</v>
       </c>
       <c r="E5">
-        <v>2.345801271157881</v>
+        <v>2.82739798754654</v>
       </c>
       <c r="F5">
-        <v>2.34258258903974</v>
+        <v>2.819473144954236</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3339033228567314</v>
+        <v>0.4309535499285895</v>
       </c>
       <c r="C6">
-        <v>1.171432943203542</v>
+        <v>1.407201242206765</v>
       </c>
       <c r="D6">
-        <v>5.596202172583759</v>
+        <v>8.132525087741485</v>
       </c>
       <c r="E6">
-        <v>2.365629339643842</v>
+        <v>2.85175824496774</v>
       </c>
       <c r="F6">
-        <v>2.366729117756491</v>
+        <v>2.84948429316084</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3166843790088169</v>
+        <v>0.436267056338538</v>
       </c>
       <c r="C7">
-        <v>1.268286245602126</v>
+        <v>1.569053982142953</v>
       </c>
       <c r="D7">
-        <v>6.364584808664379</v>
+        <v>9.223627919858613</v>
       </c>
       <c r="E7">
-        <v>2.522812876268151</v>
+        <v>3.037042627270584</v>
       </c>
       <c r="F7">
-        <v>2.535576010015387</v>
+        <v>3.045889392437618</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2837060048817768</v>
+        <v>0.4110347441899493</v>
       </c>
       <c r="C8">
-        <v>1.270563093429218</v>
+        <v>1.588476331609555</v>
       </c>
       <c r="D8">
-        <v>6.590865384712885</v>
+        <v>9.491981118609186</v>
       </c>
       <c r="E8">
-        <v>2.567268078076944</v>
+        <v>3.080905892527259</v>
       </c>
       <c r="F8">
-        <v>2.585794346692225</v>
+        <v>3.095481328727775</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06262643962625501</v>
+        <v>0.08076273096934439</v>
       </c>
       <c r="C9">
-        <v>1.720805088009817</v>
+        <v>2.109961141030493</v>
       </c>
       <c r="D9">
-        <v>10.81057706780112</v>
+        <v>15.00836014869273</v>
       </c>
       <c r="E9">
-        <v>3.287944200834485</v>
+        <v>3.874062486420776</v>
       </c>
       <c r="F9">
-        <v>3.368529018236877</v>
+        <v>3.973840450533185</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.5304237684279632</v>
+        <v>-0.6203614576892605</v>
       </c>
       <c r="C10">
-        <v>1.353147886947694</v>
+        <v>2.00672458876966</v>
       </c>
       <c r="D10">
-        <v>6.53100329151635</v>
+        <v>12.86991326340611</v>
       </c>
       <c r="E10">
-        <v>2.555582769451295</v>
+        <v>3.587466134112782</v>
       </c>
       <c r="F10">
-        <v>2.594300777942687</v>
+        <v>3.677701320433923</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.7489990067474906</v>
+        <v>1.509871661924674</v>
       </c>
       <c r="C11">
-        <v>0.7489990067474906</v>
+        <v>1.524567153826987</v>
       </c>
       <c r="D11">
-        <v>0.8040835518222755</v>
+        <v>3.867561475191954</v>
       </c>
       <c r="E11">
-        <v>0.8967070602054361</v>
+        <v>1.966611673714959</v>
       </c>
       <c r="F11">
-        <v>0.5512304868582063</v>
+        <v>1.408833311515586</v>
       </c>
       <c r="G11">
         <v>5</v>
